--- a/Eforlar.xlsx
+++ b/Eforlar.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="11760" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="11760" tabRatio="762" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="12.01.2018" sheetId="20" r:id="rId1"/>
     <sheet name="01.02.2018" sheetId="21" r:id="rId2"/>
+    <sheet name="01.03.2018" sheetId="22" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
   <si>
     <t>Planlanan</t>
   </si>
@@ -702,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -965,4 +966,271 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>321</v>
+      </c>
+      <c r="C2" s="5">
+        <v>321</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" ref="D2:D5" si="0">B2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:E5" si="1">C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
+        <v>48</v>
+      </c>
+      <c r="C3" s="5">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
+        <v>27.6</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>28.25</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="1"/>
+        <v>8.8709677419354843E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>220</v>
+      </c>
+      <c r="C5" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>208.5</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>5.2272727272727269E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <f>B6-C6</f>
+        <v>55</v>
+      </c>
+      <c r="E6" s="4">
+        <f>C6/B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
+        <v>198</v>
+      </c>
+      <c r="C9" s="5">
+        <v>198</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" ref="D9:D13" si="2">B9-C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" ref="E9:E13" si="3">C9/B9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>100</v>
+      </c>
+      <c r="C10" s="5">
+        <v>42.19</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="2"/>
+        <v>57.81</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.4219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>77</v>
+      </c>
+      <c r="C11" s="5">
+        <v>23.77</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="2"/>
+        <v>53.230000000000004</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.3087012987012987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5">
+        <v>199</v>
+      </c>
+      <c r="C12" s="5">
+        <v>13.63</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="2"/>
+        <v>185.37</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="3"/>
+        <v>6.8492462311557797E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6">
+        <v>56</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>